--- a/static/plastic.xlsx
+++ b/static/plastic.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hp\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Apps\Quantity Servey\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64F13B69-EFF8-49A4-95F8-53ED1F678EEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1950" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>name</t>
   </si>
@@ -38,43 +39,88 @@
     <t>description</t>
   </si>
   <si>
-    <t>good quality</t>
-  </si>
-  <si>
-    <t>perfect condition</t>
-  </si>
-  <si>
-    <t>curved sheets</t>
-  </si>
-  <si>
-    <t>tile ridge cap</t>
-  </si>
-  <si>
-    <t>high profile</t>
-  </si>
-  <si>
-    <t>ondulee</t>
-  </si>
-  <si>
-    <t>super echo profile</t>
-  </si>
-  <si>
-    <t>tileform sheet</t>
-  </si>
-  <si>
-    <t>wave tileform sheet</t>
-  </si>
-  <si>
-    <t>galvanised sheet</t>
-  </si>
-  <si>
-    <t>open sections</t>
+    <t>PVC Pipes &amp; Fittings ​</t>
+  </si>
+  <si>
+    <t>All Size (PN 4, PN6, PN10, PN16 and PN 25)</t>
+  </si>
+  <si>
+    <t>Plastic Jerry can</t>
+  </si>
+  <si>
+    <t>from 0.5L to 20L with all Colors.</t>
+  </si>
+  <si>
+    <t>Plastic Crates (For Beverages)</t>
+  </si>
+  <si>
+    <t>all color and size depends on orders.</t>
+  </si>
+  <si>
+    <t>Plastic chairs</t>
+  </si>
+  <si>
+    <t>All colors and shape form</t>
+  </si>
+  <si>
+    <t>Plastic basins</t>
+  </si>
+  <si>
+    <t>from 18L to 40L</t>
+  </si>
+  <si>
+    <t>ROTO WATER TANKS</t>
+  </si>
+  <si>
+    <t>Roto Plastic Water Tank is a Low Cost, Hygienic, Maintenance, Leak Proof, Insulation tanks which is highly weather proof and light weight.</t>
+  </si>
+  <si>
+    <t>HDPE PIPES</t>
+  </si>
+  <si>
+    <t>ROTO HDPE Pipes are available in 20 mm diameter to 500 mm diameter and Class (Pressure Rating) PN-8, PN-10, PN-12.5, PN-16, PN-20, PN-25 with complete range of fitting.</t>
+  </si>
+  <si>
+    <t>PVC PIPES</t>
+  </si>
+  <si>
+    <t>PPR Pipes &amp; Fittings are widely applicable in the plumbing and water supply systems.</t>
+  </si>
+  <si>
+    <t>PLASTIC SEPTIC TANKS</t>
+  </si>
+  <si>
+    <t>The Roto Plastic Septic Tank was designed and developed by a team of experts after lengthy research.</t>
+  </si>
+  <si>
+    <t>DUST BINS</t>
+  </si>
+  <si>
+    <t>Plastic Dust Bins are rotationally moulded from tough industrial polyethylene giving strength and durability to the product to last for years and years. </t>
+  </si>
+  <si>
+    <t>PLASTIC DRUMS</t>
+  </si>
+  <si>
+    <t>210 ltrs, 100 ltrs… Advantages : Long lasting, durable, heavy duty, water proof &amp; hygienic. </t>
+  </si>
+  <si>
+    <t>MOBILE TOILET</t>
+  </si>
+  <si>
+    <t>The Roto Toilet Hut is the most modern and convenient ready-to-use pit latrine toilet. </t>
+  </si>
+  <si>
+    <t>SANITIZING CABIN</t>
+  </si>
+  <si>
+    <t>The Roto TIZER is unique modular Plastic Sanitizing Cabin. The global pandemic of Covid19 has caused the world to set up new protocols for protection.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -104,8 +150,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,21 +432,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="1" max="1" width="27.81640625" customWidth="1"/>
+    <col min="2" max="2" width="20.7265625" customWidth="1"/>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -413,133 +460,190 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>2100</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-      <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3">
+        <v>1500</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="B3">
-        <v>39</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>8</v>
       </c>
       <c r="B4">
-        <v>39</v>
+        <v>2500</v>
       </c>
       <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5">
+        <v>4500</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>2000</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7">
+        <v>100000</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8">
+        <v>50000</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>20000</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10">
+        <v>60000</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>25000</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>39</v>
-      </c>
-      <c r="C5">
+      <c r="D11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12">
+        <v>30000</v>
+      </c>
+      <c r="C12">
         <v>2</v>
       </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6">
-        <v>39</v>
-      </c>
-      <c r="C6">
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13">
+        <v>200000</v>
+      </c>
+      <c r="C13">
         <v>2</v>
       </c>
-      <c r="D6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7">
-        <v>39</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8">
-        <v>39</v>
-      </c>
-      <c r="C8">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9">
-        <v>39</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10">
-        <v>39</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
+      <c r="D13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>12000</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>